--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R081f166e6bb044d3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R4477c2f472b44b99"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R4477c2f472b44b99"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rf47be67e3b274f2a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rf47be67e3b274f2a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rbb70e3b42a3d4324"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rbb70e3b42a3d4324"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R6d418117b70d4ef4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,17 +27,17 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -53,31 +53,31 @@
     <x:border/>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left/>
       <x:right/>
       <x:top style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="FF0000"/>
+        <x:color rgb="FFFF0000"/>
       </x:left>
       <x:right/>
       <x:top/>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R6d418117b70d4ef4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R02c94234bb8647d5"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R02c94234bb8647d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rbf6c49315ad04d46"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rbf6c49315ad04d46"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R7b870e9e703240e6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R7b870e9e703240e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R275a2286ba5645fc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R275a2286ba5645fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rd28ce383822c4bb6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rd28ce383822c4bb6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R1bbcaa6a3dc846c6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R1bbcaa6a3dc846c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R978ef1d2e9fc4d22"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R978ef1d2e9fc4d22"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R281a26595e1b4b83"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R281a26595e1b4b83"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R751d4193d8c345ba"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R751d4193d8c345ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Ra865d0e0618c4cf1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Ra865d0e0618c4cf1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rf6444e75ce0243e9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rf6444e75ce0243e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R8fa0ddb3bae14efa"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R8fa0ddb3bae14efa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R57ae4f40d7e94322"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R57ae4f40d7e94322"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R3aae090e96d74541"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R3aae090e96d74541"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R085f4b4118bc46cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R085f4b4118bc46cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R654531f1a6944f94"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R654531f1a6944f94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R65678486001b4592"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R65678486001b4592"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R2b93216840e24e2d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R2b93216840e24e2d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rd30703f22e3b4a0a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rd30703f22e3b4a0a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R0edfedcf5ab74bad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R0edfedcf5ab74bad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R42ce6e0bd8ee44b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R42ce6e0bd8ee44b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rcde1827d212c4ad3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rcde1827d212c4ad3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rc14fe0ee98744321"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rc14fe0ee98744321"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R69a32ecb9b8446a7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R69a32ecb9b8446a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Re65bc50d05af4be3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Re65bc50d05af4be3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R1c583cbb803c434d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R1c583cbb803c434d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R2f84162fe7d944aa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R2f84162fe7d944aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Ra238819601bd45df"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Ra238819601bd45df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R67e3e0f8e7b740cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R67e3e0f8e7b740cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rbd35d2a36acd4871"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rbd35d2a36acd4871"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rb505edde4e074e59"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rb505edde4e074e59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R774ddf3cc101475f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R774ddf3cc101475f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R42f97fff948a41d9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R42f97fff948a41d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rf3f6b685f0724d78"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rf3f6b685f0724d78"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R172d921f040043a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R172d921f040043a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rfe6739e2e27b4494"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rfe6739e2e27b4494"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R7dbaae0e612c407c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R7dbaae0e612c407c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R9ec2db1abdf847d4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R9ec2db1abdf847d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R6cc1d3d6d2a74af3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R6cc1d3d6d2a74af3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R1558c6aa87504d2f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/08_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R1558c6aa87504d2f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R2f8a760f950142ae"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
